--- a/biology/Botanique/Conobea_aquatica/Conobea_aquatica.xlsx
+++ b/biology/Botanique/Conobea_aquatica/Conobea_aquatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conobea aquatica est une espèce herbacée sud-américaine appartenant à la famille des Plantaginaceae (anciennement Scrophulariaceae). Conobea aquatica est l'espèce type du genre Conobea.
-Elle est appelée Pataqueira au Brésil[2].
+Elle est appelée Pataqueira au Brésil.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conobea aquatica est une plante herbacée prostrée, rampante, étalée ou grimpante, souvent immergée, avec des tiges charnues radicantes. Ses feuilles sont sessiles, cordées, orbiculaires ou suborbiculaires, opposées-décussées, embrassantes à la base et denticulées, longues de 0,5–0,8(–1) cm et généralement un peu plus larges[3]
-. Les fleurs axillaires sont solitaires ou groupées par 2 ou 3, portées par un pédoncule grêle, bractéolé et long de 10-15 mm. Le calice est composé de 5 parties inégales. La corolle est bleu violacé, et tubulaire avec 5 lobes arrondis[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conobea aquatica est une plante herbacée prostrée, rampante, étalée ou grimpante, souvent immergée, avec des tiges charnues radicantes. Ses feuilles sont sessiles, cordées, orbiculaires ou suborbiculaires, opposées-décussées, embrassantes à la base et denticulées, longues de 0,5–0,8(–1) cm et généralement un peu plus larges
+. Les fleurs axillaires sont solitaires ou groupées par 2 ou 3, portées par un pédoncule grêle, bractéolé et long de 10-15 mm. Le calice est composé de 5 parties inégales. La corolle est bleu violacé, et tubulaire avec 5 lobes arrondis.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Conobea aquatica du Venezuela au Brésil (Amapá, Pará, Minas Gerais, Roraima), en passant par Trinidad et Tobago, le Guyana, le Suriname, la Guyane[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Conobea aquatica du Venezuela au Brésil (Amapá, Pará, Minas Gerais, Roraima), en passant par Trinidad et Tobago, le Guyana, le Suriname, la Guyane.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conobea aquatica pousse entre (0)50–500 m d'altitude. Elle affectionne les zones humides des savanes, les fossés, les rives boueuses des mares, et les berges des cours d'eau[3]. En Guyane, elle fleurit de novembre à janvier[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conobea aquatica pousse entre (0)50–500 m d'altitude. Elle affectionne les zones humides des savanes, les fossés, les rives boueuses des mares, et les berges des cours d'eau. En Guyane, elle fleurit de novembre à janvier.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conobea aquatica fait partie de plantes employées dans le Pará pour composer des poudres, macérats et pots-pourris de plantes aromatiques destinés à parfumer la maison[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conobea aquatica fait partie de plantes employées dans le Pará pour composer des poudres, macérats et pots-pourris de plantes aromatiques destinés à parfumer la maison.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « CONOBEA aquatica. (Tabula 258.) 
 Herba procumbens. Caules &amp; Raminodoſi, quadrangulares, marginibus alatis. Folia reniformia, ſeſſilia, oppoſita, undulata. Flores ſolitarii vel bini oppoſiti, pedunculati, axillares. Corollæ cærulæ. 
 Floret Junio. 
